--- a/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
+++ b/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{1D369C15-C2DE-4694-8D16-2EDEF857E93D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{1D369C15-C2DE-4694-8D16-2EDEF857E93D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>CP</t>
   </si>
@@ -74,9 +75,6 @@
     <t>CB</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>Profesor</t>
   </si>
   <si>
@@ -86,17 +84,75 @@
     <t>Horas 2017</t>
   </si>
   <si>
-    <t>Horas 2018</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>MFE</t>
+  </si>
+  <si>
+    <t>Horas 2018 (1° sem)</t>
+  </si>
+  <si>
+    <t>Q. Profesores 2017</t>
+  </si>
+  <si>
+    <t>Horas Totales 2017</t>
+  </si>
+  <si>
+    <t>Horas Totales 2018</t>
+  </si>
+  <si>
+    <t>Q. Profesores 2018</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Corrección</t>
+  </si>
+  <si>
+    <t>Supervisión</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>Preferencia por reducción de costos</t>
+  </si>
+  <si>
+    <t>Preferencia por reducción de excedente de horas</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Costo [CLP]</t>
+  </si>
+  <si>
+    <t>Excedente Total [horas]</t>
+  </si>
+  <si>
+    <t>Diferencia Porcentual</t>
+  </si>
+  <si>
+    <t>Diferencia %</t>
+  </si>
+  <si>
+    <t>Externalización</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +160,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,42 +219,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,285 +569,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BC6FD-AA81-4022-8B90-E1EB0435D432}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F2,$C$2:$C$14,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F2,$D$2:$D$14,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="10">
+        <f>(H2-G2)/G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMIF($B$2:$B$14,F2,$C$2:$C$14)</f>
+        <v>7.5</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMIF($B$2:$B$14,F2,$D$2:$D$14)</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L7" si="0">(K2-J2)/J2</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F3,$C$2:$C$14,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F3,$D$2:$D$14,"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I7" si="1">(H3-G3)/G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>SUMIF($B$2:$B$14,F3,$C$2:$C$14)</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <f>SUMIF($B$2:$B$14,F3,$D$2:$D$14)</f>
+        <v>6.5</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F4,$C$2:$C$14,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F4,$D$2:$D$14,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>SUMIF($B$2:$B$14,F4,$C$2:$C$14)</f>
+        <v>17</v>
+      </c>
+      <c r="K4" s="3">
+        <f>SUMIF($B$2:$B$14,F4,$D$2:$D$14)</f>
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F5,$C$2:$C$14,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F5,$D$2:$D$14,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="J5" s="3">
+        <f>SUMIF($B$2:$B$14,F5,$C$2:$C$14)</f>
+        <v>18.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f>SUMIF($B$2:$B$14,F5,$D$2:$D$14)</f>
+        <v>12.5</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F6,$C$2:$C$14,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f>COUNTIFS($B$2:$B$14,$F6,$D$2:$D$14,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>SUMIF($B$2:$B$14,F6,$C$2:$C$14)</f>
+        <v>15</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUMIF($B$2:$B$14,F6,$D$2:$D$14)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G7" s="8">
+        <f>SUM(G2:G6)</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUM(H2:H6)</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="J7" s="8">
+        <f>SUM(C2:C14)</f>
+        <v>66</v>
+      </c>
+      <c r="K7" s="8">
+        <f>SUM(D2:D14)</f>
+        <v>48.5</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.26515151515151514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>424</v>
+      </c>
+      <c r="H11" s="3">
+        <v>528</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" ref="I11:I14" si="2">(H11-G11)/G11</f>
+        <v>0.24528301886792453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3">
+        <v>320</v>
+      </c>
+      <c r="H12" s="3">
+        <v>351</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6875000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>104</v>
+      </c>
+      <c r="H13" s="3">
+        <v>177</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.70192307692307687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C2:C13)</f>
-        <v>66</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D2:D13)</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18" si="0">SUMIF($B$2:$B$13,B18,$C$2:$C$13)</f>
-        <v>7.5</v>
-      </c>
-      <c r="D18">
-        <f>SUMIF($B$2:$B$13,B18,$D$2:$D$13)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f>SUMIF($B$2:$B$13,B19,$C$2:$C$13)</f>
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D22" si="1">SUMIF($B$2:$B$13,B19,$D$2:$D$13)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:C22" si="2">SUMIF($B$2:$B$13,B20,$C$2:$C$13)</f>
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G11:G13)</f>
+        <v>848</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H11:H13)</f>
+        <v>1056</v>
+      </c>
+      <c r="I14" s="15">
         <f t="shared" si="2"/>
-        <v>18.5</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0.24528301886792453</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2018</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3">
+        <v>132</v>
+      </c>
+      <c r="I18" s="10">
+        <f>(H18-G18)/G18</f>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3">
+        <v>61</v>
+      </c>
+      <c r="H19" s="3">
+        <v>158</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" ref="I19:I21" si="3">(H19-G19)/G19</f>
+        <v>1.5901639344262295</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3">
+        <v>71</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="3"/>
+        <v>2.2272727272727271</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8">
+        <f>SUM(G18:G20)</f>
+        <v>135</v>
+      </c>
+      <c r="H21" s="8">
+        <f>SUM(H18:H20)</f>
+        <v>361</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="3"/>
+        <v>1.674074074074074</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AAD958-DF5E-4C52-8EA7-F30F5563741E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11">
+        <f>1-E1</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1999000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5579000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10">
+        <f>(B6-B5)/B5</f>
+        <v>1.7908954477238619</v>
+      </c>
+      <c r="C7" s="10">
+        <f>(C6-C5)/C5</f>
+        <v>0.81521739130434778</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
+++ b/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{1D369C15-C2DE-4694-8D16-2EDEF857E93D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparación de Condiciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparación Resultados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>CP</t>
   </si>
@@ -93,21 +93,12 @@
     <t>Horas 2018 (1° sem)</t>
   </si>
   <si>
-    <t>Q. Profesores 2017</t>
-  </si>
-  <si>
     <t>Horas Totales 2017</t>
   </si>
   <si>
     <t>Horas Totales 2018</t>
   </si>
   <si>
-    <t>Q. Profesores 2018</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>Actividades</t>
   </si>
   <si>
@@ -135,13 +126,55 @@
     <t>Excedente Total [horas]</t>
   </si>
   <si>
-    <t>Diferencia Porcentual</t>
-  </si>
-  <si>
     <t>Diferencia %</t>
   </si>
   <si>
-    <t>Externalización</t>
+    <t>Modelo; Correcciones fijas</t>
+  </si>
+  <si>
+    <t>Modelo; Correcciones móviles</t>
+  </si>
+  <si>
+    <t>Asignación Manual</t>
+  </si>
+  <si>
+    <t>Condiciones</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Costo Base</t>
+  </si>
+  <si>
+    <t>Costo Traslado</t>
+  </si>
+  <si>
+    <t>Bonus*</t>
+  </si>
+  <si>
+    <t>*El/la docente CB realiza supervisiones de diferentes especialidades.</t>
+  </si>
+  <si>
+    <t>Condiciones de Actividades y Tarifas</t>
+  </si>
+  <si>
+    <t>Profesores Activos 2017</t>
+  </si>
+  <si>
+    <t>Profesores Activos 2018</t>
+  </si>
+  <si>
+    <t>Cantidad de Actividades</t>
+  </si>
+  <si>
+    <t>Externalizaciones</t>
+  </si>
+  <si>
+    <t>Actividades Totales</t>
   </si>
 </sst>
 </file>
@@ -191,12 +224,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,13 +252,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,22 +307,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -569,58 +668,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BC6FD-AA81-4022-8B90-E1EB0435D432}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>37</v>
+      <c r="L1" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -647,7 +747,7 @@
         <f>COUNTIFS($B$2:$B$14,$F2,$D$2:$D$14,"&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <f>(H2-G2)/G2</f>
         <v>0</v>
       </c>
@@ -659,7 +759,7 @@
         <f>SUMIF($B$2:$B$14,F2,$D$2:$D$14)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="0">(K2-J2)/J2</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -688,8 +788,8 @@
         <f>COUNTIFS($B$2:$B$14,$F3,$D$2:$D$14,"&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I7" si="1">(H3-G3)/G3</f>
+      <c r="I3" s="7">
+        <f>(H3-G3)/G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
@@ -700,7 +800,7 @@
         <f>SUMIF($B$2:$B$14,F3,$D$2:$D$14)</f>
         <v>6.5</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <f t="shared" si="0"/>
         <v>-0.1875</v>
       </c>
@@ -729,8 +829,8 @@
         <f>COUNTIFS($B$2:$B$14,$F4,$D$2:$D$14,"&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" si="1"/>
+      <c r="I4" s="7">
+        <f>(H4-G4)/G4</f>
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -741,7 +841,7 @@
         <f>SUMIF($B$2:$B$14,F4,$D$2:$D$14)</f>
         <v>16.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <f t="shared" si="0"/>
         <v>-2.9411764705882353E-2</v>
       </c>
@@ -770,8 +870,8 @@
         <f>COUNTIFS($B$2:$B$14,$F5,$D$2:$D$14,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="1"/>
+      <c r="I5" s="7">
+        <f>(H5-G5)/G5</f>
         <v>-0.66666666666666663</v>
       </c>
       <c r="J5" s="3">
@@ -782,7 +882,7 @@
         <f>SUMIF($B$2:$B$14,F5,$D$2:$D$14)</f>
         <v>12.5</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <f t="shared" si="0"/>
         <v>-0.32432432432432434</v>
       </c>
@@ -801,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3">
         <f>COUNTIFS($B$2:$B$14,$F6,$C$2:$C$14,"&gt;0")</f>
@@ -811,8 +911,8 @@
         <f>COUNTIFS($B$2:$B$14,$F6,$D$2:$D$14,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="1"/>
+      <c r="I6" s="7">
+        <f>(H6-G6)/G6</f>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -823,7 +923,7 @@
         <f>SUMIF($B$2:$B$14,F6,$D$2:$D$14)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <f t="shared" si="0"/>
         <v>-0.66666666666666663</v>
       </c>
@@ -841,30 +941,30 @@
       <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="24">
         <f>SUM(G2:G6)</f>
         <v>12</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="24">
         <f>SUM(H2:H6)</f>
         <v>10</v>
       </c>
-      <c r="I7" s="15">
-        <f t="shared" si="1"/>
+      <c r="I7" s="27">
+        <f>(H7-G7)/G7</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="24">
         <f>SUM(C2:C14)</f>
         <v>66</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="24">
         <f>SUM(D2:D14)</f>
         <v>48.5</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="27">
         <f t="shared" si="0"/>
         <v>-0.26515151515151514</v>
       </c>
@@ -896,6 +996,12 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -910,17 +1016,17 @@
       <c r="D10" s="2">
         <v>12.5</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9">
         <v>2017</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>2018</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>37</v>
+      <c r="I10" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -937,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <v>424</v>
@@ -945,8 +1051,8 @@
       <c r="H11" s="3">
         <v>528</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" ref="I11:I14" si="2">(H11-G11)/G11</f>
+      <c r="I11" s="7">
+        <f>(H11-G11)/G11</f>
         <v>0.24528301886792453</v>
       </c>
     </row>
@@ -964,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3">
         <v>320</v>
@@ -972,8 +1078,8 @@
       <c r="H12" s="3">
         <v>351</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="2"/>
+      <c r="I12" s="7">
+        <f>(H12-G12)/G12</f>
         <v>9.6875000000000003E-2</v>
       </c>
     </row>
@@ -991,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3">
         <v>104</v>
@@ -999,8 +1105,8 @@
       <c r="H13" s="3">
         <v>177</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
+      <c r="I13" s="7">
+        <f>(H13-G13)/G13</f>
         <v>0.70192307692307687</v>
       </c>
     </row>
@@ -1009,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>15</v>
@@ -1017,192 +1123,394 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="24">
         <f>SUM(G11:G13)</f>
         <v>848</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="24">
         <f>SUM(H11:H13)</f>
         <v>1056</v>
       </c>
-      <c r="I14" s="15">
-        <f t="shared" si="2"/>
+      <c r="I14" s="27">
+        <f>(H14-G14)/G14</f>
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="H17" s="12">
-        <v>2018</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3">
-        <v>52</v>
-      </c>
-      <c r="H18" s="3">
-        <v>132</v>
-      </c>
-      <c r="I18" s="10">
-        <f>(H18-G18)/G18</f>
-        <v>1.5384615384615385</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="3">
-        <v>61</v>
-      </c>
-      <c r="H19" s="3">
-        <v>158</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" ref="I19:I21" si="3">(H19-G19)/G19</f>
-        <v>1.5901639344262295</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3">
-        <v>22</v>
-      </c>
-      <c r="H20" s="3">
-        <v>71</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="3"/>
-        <v>2.2272727272727271</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUM(G18:G20)</f>
-        <v>135</v>
-      </c>
-      <c r="H21" s="8">
-        <f>SUM(H18:H20)</f>
-        <v>361</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="3"/>
-        <v>1.674074074074074</v>
-      </c>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="F9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AAD958-DF5E-4C52-8EA7-F30F5563741E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="8">
+        <f>1-D1</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11">
-        <f>1-E1</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3">
+        <v>40</v>
+      </c>
+      <c r="G6" s="24">
+        <f>SUM(D6:F6)</f>
+        <v>173</v>
+      </c>
+      <c r="H6" s="25">
+        <v>2731000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="C7" s="3">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="24">
+        <f>SUM(D7:F7)</f>
+        <v>117</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2059000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>135</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G10" si="0">SUM(D8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3">
+        <v>128</v>
+      </c>
+      <c r="E9" s="3">
+        <v>173</v>
+      </c>
+      <c r="F9" s="3">
+        <v>124</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="H9" s="25">
+        <v>7081000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3">
+        <v>181</v>
+      </c>
+      <c r="F10" s="3">
+        <v>122</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="H10" s="25">
+        <v>6596000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>2017</v>
       </c>
-      <c r="B5" s="13">
-        <v>1999000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>2018</v>
       </c>
-      <c r="B6" s="13">
-        <v>5579000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="10">
-        <f>(B6-B5)/B5</f>
-        <v>1.7908954477238619</v>
-      </c>
-      <c r="C7" s="10">
-        <f>(C6-C5)/C5</f>
-        <v>0.81521739130434778</v>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
+++ b/proy_prueba/proy_files/Comparacion_estado_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{1D369C15-C2DE-4694-8D16-2EDEF857E93D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{1D369C15-C2DE-4694-8D16-2EDEF857E93D}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparación de Condiciones" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>CP</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Actividades Totales</t>
+  </si>
+  <si>
+    <t>Cantidad de Alumnos</t>
+  </si>
+  <si>
+    <t>Practica I</t>
+  </si>
+  <si>
+    <t>Internado</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD965"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +310,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,28 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +346,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -668,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385BC6FD-AA81-4022-8B90-E1EB0435D432}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="7">
-        <f>(H2-G2)/G2</f>
+        <f t="shared" ref="I2:I7" si="0">(H2-G2)/G2</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
@@ -760,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" ref="L2:L7" si="0">(K2-J2)/J2</f>
+        <f t="shared" ref="L2:L7" si="1">(K2-J2)/J2</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -789,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="7">
-        <f>(H3-G3)/G3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="3">
@@ -801,7 +849,7 @@
         <v>6.5</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.1875</v>
       </c>
     </row>
@@ -827,11 +875,11 @@
       </c>
       <c r="H4" s="3">
         <f>COUNTIFS($B$2:$B$14,$F4,$D$2:$D$14,"&gt;0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <f>(H4-G4)/G4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="J4" s="3">
         <f>SUMIF($B$2:$B$14,F4,$C$2:$C$14)</f>
@@ -839,11 +887,11 @@
       </c>
       <c r="K4" s="3">
         <f>SUMIF($B$2:$B$14,F4,$D$2:$D$14)</f>
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.9411764705882353E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.11764705882352941</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -871,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <f>(H5-G5)/G5</f>
+        <f t="shared" si="0"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="J5" s="3">
@@ -883,7 +931,7 @@
         <v>12.5</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.32432432432432434</v>
       </c>
     </row>
@@ -912,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <f>(H6-G6)/G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -924,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
     </row>
@@ -941,32 +989,32 @@
       <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="17">
         <f>SUM(G2:G6)</f>
         <v>12</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="17">
         <f>SUM(H2:H6)</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="27">
-        <f>(H7-G7)/G7</f>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="J7" s="24">
+        <v>9</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J7" s="17">
         <f>SUM(C2:C14)</f>
         <v>66</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="17">
         <f>SUM(D2:D14)</f>
-        <v>48.5</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="0"/>
-        <v>-0.26515151515151514</v>
+        <v>47</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.2878787878787879</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -996,12 +1044,12 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1046,14 +1094,14 @@
         <v>25</v>
       </c>
       <c r="G11" s="3">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H11" s="3">
         <v>528</v>
       </c>
       <c r="I11" s="7">
         <f>(H11-G11)/G11</f>
-        <v>0.24528301886792453</v>
+        <v>0.26923076923076922</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1073,14 +1121,14 @@
         <v>26</v>
       </c>
       <c r="G12" s="3">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H12" s="3">
         <v>351</v>
       </c>
       <c r="I12" s="7">
         <f>(H12-G12)/G12</f>
-        <v>9.6875000000000003E-2</v>
+        <v>0.1178343949044586</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1100,14 +1148,14 @@
         <v>27</v>
       </c>
       <c r="G13" s="3">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="3">
         <v>177</v>
       </c>
       <c r="I13" s="7">
         <f>(H13-G13)/G13</f>
-        <v>0.70192307692307687</v>
+        <v>0.73529411764705888</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,40 +1171,99 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="17">
         <f>SUM(G11:G13)</f>
-        <v>848</v>
-      </c>
-      <c r="H14" s="24">
+        <v>832</v>
+      </c>
+      <c r="H14" s="17">
         <f>SUM(H11:H13)</f>
         <v>1056</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="20">
         <f>(H14-G14)/G14</f>
-        <v>0.24528301886792453</v>
+        <v>0.26923076923076922</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="F16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31">
+        <v>2017</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2018</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="34">
+        <v>44</v>
+      </c>
+      <c r="H18" s="34">
+        <v>36</v>
+      </c>
+      <c r="I18" s="35">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="34">
+        <v>26</v>
+      </c>
+      <c r="H19" s="34">
+        <v>45</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="37">
+        <v>70</v>
+      </c>
+      <c r="H20" s="37">
+        <v>81</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0.16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A15:B17"/>
     <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1164,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AAD958-DF5E-4C52-8EA7-F30F5563741E}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,40 +1290,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="7">
         <v>0.9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="8">
         <f>1-D1</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1228,16 +1335,16 @@
       <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1245,271 +1352,253 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="24">
         <v>2017</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3">
-        <v>40</v>
-      </c>
-      <c r="G6" s="24">
+        <v>39</v>
+      </c>
+      <c r="G6" s="17">
         <f>SUM(D6:F6)</f>
-        <v>173</v>
-      </c>
-      <c r="H6" s="25">
-        <v>2731000</v>
+        <v>165</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2614000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="3">
-        <v>57</v>
+        <v>66.5</v>
       </c>
       <c r="D7" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="G7" s="24">
+        <v>39</v>
+      </c>
+      <c r="G7" s="17">
         <f>SUM(D7:F7)</f>
-        <v>117</v>
-      </c>
-      <c r="H7" s="25">
-        <v>2059000</v>
+        <v>102</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1858000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>135</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G10" si="0">SUM(D8:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="25"/>
+      <c r="D8" s="3">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" ref="G8:G9" si="0">SUM(D8:F8)</f>
+        <v>161</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2379000</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="21">
         <v>2018</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="D9" s="3">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F9" s="3">
-        <v>124</v>
-      </c>
-      <c r="G9" s="24">
+        <v>122</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="H9" s="25">
-        <v>7081000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3">
-        <v>93.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3">
-        <v>181</v>
-      </c>
-      <c r="F10" s="3">
-        <v>122</v>
-      </c>
-      <c r="G10" s="24">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="H10" s="25">
-        <v>6596000</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7125000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="10">
-        <v>14000</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="B19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C20" s="10">
         <v>12000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B21" s="3">
         <v>2.5</v>
       </c>
-      <c r="C17" s="10">
-        <v>14000</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C21" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D21" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>12000</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C22" s="10">
-        <v>20000</v>
-      </c>
-      <c r="D22" s="10">
-        <v>5000</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
